--- a/target/classes/testData/testdata_Excel.xlsx
+++ b/target/classes/testData/testdata_Excel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\QA_Legend\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF6961-4E4E-4800-B63B-26C44914EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BB149-C2FC-4143-8AF8-32CC1FBEE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Note_Page" sheetId="2" r:id="rId2"/>
     <sheet name="message" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Announcement" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>eventTestTitle</t>
   </si>
@@ -48,15 +49,9 @@
     <t>location 1</t>
   </si>
   <si>
-    <t>Note Tittle</t>
-  </si>
-  <si>
     <t>Note Desc</t>
   </si>
   <si>
-    <t>Note  Tittle A</t>
-  </si>
-  <si>
     <t>title A's desc</t>
   </si>
   <si>
@@ -106,6 +101,21 @@
   </si>
   <si>
     <t>AAAA</t>
+  </si>
+  <si>
+    <t>Note Title A</t>
+  </si>
+  <si>
+    <t>Note Title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Trail Announcement Title</t>
+  </si>
+  <si>
+    <t>Trail Announcement description…</t>
   </si>
 </sst>
 </file>
@@ -467,9 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B32533-62BB-4137-9A56-8C687B3D7045}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -479,18 +487,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -515,24 +523,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED610AFB-7242-4C78-AEF3-291FA863EEB0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -556,36 +564,71 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C5FE5-7BE2-4A24-AF4D-44DA0F32DE91}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testData/testdata_Excel.xlsx
+++ b/target/classes/testData/testdata_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\QA_Legend\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BB149-C2FC-4143-8AF8-32CC1FBEE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745DE046-6DF1-4D50-9A89-DDAD7614FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="message" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Announcement" sheetId="5" r:id="rId5"/>
+    <sheet name="Leave" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>eventTestTitle</t>
   </si>
@@ -116,6 +117,12 @@
   </si>
   <si>
     <t>Trail Announcement description…</t>
+  </si>
+  <si>
+    <t>Leave Reason</t>
+  </si>
+  <si>
+    <t>Due to the 'Test Reason'</t>
   </si>
 </sst>
 </file>
@@ -605,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C5FE5-7BE2-4A24-AF4D-44DA0F32DE91}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -634,4 +641,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06072F31-4CEF-44E0-86BA-B0B9A7FC7948}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/testData/testdata_Excel.xlsx
+++ b/target/classes/testData/testdata_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\QA_Legend\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745DE046-6DF1-4D50-9A89-DDAD7614FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935450C-6BF6-4098-8BF0-D48EF70900A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ACB6E6-EB46-472D-9DB5-EB77ADA869E4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06072F31-4CEF-44E0-86BA-B0B9A7FC7948}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
